--- a/EDC22通信协议v0.9.xlsx
+++ b/EDC22通信协议v0.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\edchost22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AC826B-CCAF-4607-97F1-A74F919124C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4804D4-0BE8-4515-BA8D-53800E0D9D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="45" windowWidth="29100" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>MSB</t>
   </si>
@@ -52,9 +52,6 @@
     <t>车上是否有人</t>
   </si>
   <si>
-    <t>泄洪口开启信息</t>
-  </si>
-  <si>
     <t>比赛状态：未开始00，进行中01，暂停10，结束11</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
     <t>泄洪口1位置Y</t>
   </si>
   <si>
-    <t>泄洪口2位置X</t>
-  </si>
-  <si>
-    <t>泄洪口2位置Y</t>
-  </si>
-  <si>
     <t>人员位置X</t>
   </si>
   <si>
@@ -269,102 +260,6 @@
   </si>
   <si>
     <t>虚拟障碍物8B位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物9A位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物9A位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物9B位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物9B位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物10A位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物10A位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物10B位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物10B位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物11A位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物11A位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物11B位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物11B位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物12A位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物12A位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物12B位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物12B位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物13A位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物13A位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物13B位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物13B位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物14A位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物14A位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物14B位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物14B位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物15A位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物15A位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物15B位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物15B位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物16A位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物16A位置Y</t>
-  </si>
-  <si>
-    <t>虚拟障碍物16B位置X</t>
-  </si>
-  <si>
-    <t>虚拟障碍物16B位置Y</t>
   </si>
   <si>
     <t>0x0D</t>
@@ -386,6 +281,42 @@
   </si>
   <si>
     <t>1为小车信息有效0为小车信息无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄洪口开启信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄洪口2位置Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄洪口2位置X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄洪口3位置X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄洪口3位置Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄洪口4位置X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄洪口4位置Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄洪口5位置X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄洪口5位置Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,24 +370,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="B19" sqref="B19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -797,16 +737,16 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" t="s">
         <v>5</v>
       </c>
@@ -815,25 +755,25 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="4"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
@@ -843,95 +783,93 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>13</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -946,7 +884,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -960,8 +898,8 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
+      <c r="B12" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -975,8 +913,8 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
+      <c r="B13" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -986,12 +924,12 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
+      <c r="B14" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1001,27 +939,27 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="B15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
+      <c r="B16" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1031,12 +969,12 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
+      <c r="B17" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1046,50 +984,27 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="B18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+      <c r="B19" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1100,11 +1015,11 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1115,26 +1030,26 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1145,41 +1060,64 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1190,11 +1128,11 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1205,11 +1143,11 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1220,11 +1158,11 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1235,26 +1173,26 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1265,71 +1203,71 @@
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="B33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1340,11 +1278,11 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1355,71 +1293,71 @@
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="B37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="B38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="B39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="B40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1430,11 +1368,11 @@
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1445,11 +1383,11 @@
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1460,11 +1398,11 @@
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1475,11 +1413,11 @@
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1490,11 +1428,11 @@
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1505,11 +1443,11 @@
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1520,11 +1458,11 @@
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1535,11 +1473,11 @@
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1550,11 +1488,11 @@
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1565,11 +1503,11 @@
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1580,11 +1518,11 @@
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1595,11 +1533,11 @@
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1610,11 +1548,11 @@
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1625,11 +1563,11 @@
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1640,11 +1578,11 @@
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1655,11 +1593,11 @@
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1670,11 +1608,11 @@
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -1685,11 +1623,11 @@
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1700,11 +1638,11 @@
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -1715,11 +1653,11 @@
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -1730,11 +1668,11 @@
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -1745,11 +1683,11 @@
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>60</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -1760,11 +1698,11 @@
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -1775,11 +1713,11 @@
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1790,11 +1728,11 @@
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -1805,11 +1743,11 @@
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>64</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -1820,11 +1758,11 @@
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>65</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -1835,11 +1773,11 @@
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -1850,11 +1788,11 @@
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>67</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -1865,11 +1803,11 @@
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -1880,11 +1818,11 @@
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>69</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -1895,525 +1833,109 @@
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>70</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+      <c r="B73" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>71</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>72</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>73</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>74</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>75</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>76</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>77</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>78</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>79</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>80</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="B74" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>82</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>83</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>84</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>85</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>86</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>87</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>88</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>89</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>90</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>91</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>92</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>93</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>94</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>95</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>96</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>97</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="B97:I97"/>
-    <mergeCell ref="B98:I98"/>
-    <mergeCell ref="B92:I92"/>
-    <mergeCell ref="B93:I93"/>
-    <mergeCell ref="B94:I94"/>
-    <mergeCell ref="B95:I95"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B89:I89"/>
-    <mergeCell ref="B90:I90"/>
-    <mergeCell ref="B91:I91"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B83:I83"/>
-    <mergeCell ref="B84:I84"/>
-    <mergeCell ref="B85:I85"/>
-    <mergeCell ref="B86:I86"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B80:I80"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B75:I75"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
+  <mergeCells count="72">
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B99:I99"/>
-    <mergeCell ref="B100:I100"/>
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="B38:I38"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B74:I74"/>
     <mergeCell ref="B41:I41"/>
     <mergeCell ref="B42:I42"/>
     <mergeCell ref="B43:I43"/>
     <mergeCell ref="B44:I44"/>
     <mergeCell ref="B45:I45"/>
     <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="B72:I72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDC22通信协议v0.9.xlsx
+++ b/EDC22通信协议v0.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\edchost22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4804D4-0BE8-4515-BA8D-53800E0D9D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6764C08-4243-440B-875C-7EBEB71203DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="45" windowWidth="29100" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3960" yWindow="1050" windowWidth="28800" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,23 +380,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:I19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -752,7 +755,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -767,7 +770,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -783,7 +786,7 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H5" s="6"/>
@@ -802,7 +805,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -820,7 +823,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -835,7 +838,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -850,7 +853,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -865,172 +868,172 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1045,37 +1048,37 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" t="s">
@@ -1113,187 +1116,187 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1308,7 +1311,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1323,7 +1326,7 @@
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -1338,502 +1341,502 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>58</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62" s="3">
         <v>59</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64" s="3">
         <v>61</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="A65" s="3">
         <v>62</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66" s="3">
         <v>63</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="A67" s="3">
         <v>64</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="A68" s="3">
         <v>65</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="A69" s="3">
         <v>66</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="A70" s="3">
         <v>67</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="A71" s="3">
         <v>68</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="A72" s="3">
         <v>69</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="A73" s="3">
         <v>70</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -1848,7 +1851,7 @@
       <c r="I73" s="4"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="A74" s="3">
         <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -1864,42 +1867,26 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B57:I57"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B40:I40"/>
     <mergeCell ref="B73:I73"/>
@@ -1916,26 +1903,42 @@
     <mergeCell ref="B50:I50"/>
     <mergeCell ref="B51:I51"/>
     <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDC22通信协议v0.9.xlsx
+++ b/EDC22通信协议v0.9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\edchost22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6764C08-4243-440B-875C-7EBEB71203DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AF1034-7FB3-420F-9CEA-C9D424A840F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3960" yWindow="1050" windowWidth="28800" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>MSB</t>
   </si>
@@ -62,21 +62,6 @@
   </si>
   <si>
     <t>00未开启，01开启一个，10开启两个</t>
-  </si>
-  <si>
-    <t>A车位置X</t>
-  </si>
-  <si>
-    <t>位置单位：cm</t>
-  </si>
-  <si>
-    <t>A车位置Y</t>
-  </si>
-  <si>
-    <t>B车位置X</t>
-  </si>
-  <si>
-    <t>B车位置Y</t>
   </si>
   <si>
     <t>泄洪口1位置X</t>
@@ -317,6 +302,14 @@
   </si>
   <si>
     <t>泄洪口5位置Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆位置X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆位置Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,8 +376,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,14 +394,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:I71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,16 +736,16 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3" t="s">
         <v>5</v>
       </c>
@@ -758,25 +754,25 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
@@ -786,11 +782,11 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" t="s">
         <v>10</v>
       </c>
@@ -808,41 +804,38 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="B7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -857,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -872,172 +865,172 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1051,286 +1044,286 @@
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="B26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="B27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="B29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="B32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="B34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="B36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="B37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="B38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1344,553 +1337,539 @@
       <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="B40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="B41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="B42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="B43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="B44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="B45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="B46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="B47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="B48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="B49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="B50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="B51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="B52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="B53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
+      <c r="B54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
+      <c r="B55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
+      <c r="B56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
+      <c r="B57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
+      <c r="B58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
+      <c r="B59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
+      <c r="B60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
+      <c r="B61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
+      <c r="B62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
+      <c r="B63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
+      <c r="B64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
+      <c r="B65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
+      <c r="B66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
+      <c r="B67" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
+      <c r="B68" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
+      <c r="B69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
+      <c r="B70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
+      <c r="B71" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>70</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>71</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+      <c r="B72" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B70:I70"/>
+  <mergeCells count="70">
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
     <mergeCell ref="B71:I71"/>
     <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B57:I57"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B74:I74"/>
     <mergeCell ref="B41:I41"/>
     <mergeCell ref="B42:I42"/>
     <mergeCell ref="B43:I43"/>
@@ -1903,42 +1882,24 @@
     <mergeCell ref="B50:I50"/>
     <mergeCell ref="B51:I51"/>
     <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B70:I70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDC22通信协议v0.9.xlsx
+++ b/EDC22通信协议v0.9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\edchost22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\EDC22更新\edchost22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AF1034-7FB3-420F-9CEA-C9D424A840F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F51BFA-D56A-45CA-857D-7D9C08BA48DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泄洪口开启信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>泄洪口2位置Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,6 +306,10 @@
   </si>
   <si>
     <t>车辆位置Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔离点开启信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,17 +376,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -397,9 +388,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:I28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -736,16 +736,16 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" t="s">
         <v>5</v>
       </c>
@@ -754,25 +754,25 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
@@ -782,11 +782,11 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5" t="s">
         <v>10</v>
       </c>
@@ -804,241 +804,241 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="B7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="B10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="B11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="B12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="B13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="B14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="B15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="B16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="B17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -1082,788 +1082,774 @@
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>62</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>63</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>65</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>69</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:I55"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="B38:I38"/>
     <mergeCell ref="B71:I71"/>
@@ -1880,26 +1866,40 @@
     <mergeCell ref="B48:I48"/>
     <mergeCell ref="B49:I49"/>
     <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
